--- a/biology/Biochimie/Neuraminidase/Neuraminidase.xlsx
+++ b/biology/Biochimie/Neuraminidase/Neuraminidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une neuraminidase, ou sialidase, est une enzyme  (glycoside hydrolase) qui catalyse :
 l'hydrolyse d'une liaison osidique α-(2→3)-, α-(2→6)- ou α-(2→8)- des résidus d'acide sialique d'oligosaccharides, de glycoprotéines, de glycolipides, d'acide colominique et de substrats synthétiques pour l’exoneuraminidase (EC 3.2.1.18) ;
 l'endohydrolyse d'une liaison (2→8)-α-sialosyle d'acides oligo- ou polysialiques pour l’endoneuraminidase (EC 3.2.1.129).
-Ces enzymes sont des glycoprotéines antigéniques présentes à la surface des virus de la grippe, où elles participent notamment à la mobilité des particules virales à travers le mucus des voies respiratoires ainsi qu'à l'élution des virions produits au sein des cellules infectées[2],[3]. Elles appartiennent à la classe des glycoside hydrolases, qui sont des enzymes hydrolysant les composés O- et S-glycosylés, dont font également partie les amylases, enzymes humaines digestives décomposant les longues chaînes de résidus de glucose telles que l'amidon.
+Ces enzymes sont des glycoprotéines antigéniques présentes à la surface des virus de la grippe, où elles participent notamment à la mobilité des particules virales à travers le mucus des voies respiratoires ainsi qu'à l'élution des virions produits au sein des cellules infectées,. Elles appartiennent à la classe des glycoside hydrolases, qui sont des enzymes hydrolysant les composés O- et S-glycosylés, dont font également partie les amylases, enzymes humaines digestives décomposant les longues chaînes de résidus de glucose telles que l'amidon.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Sous-types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe onze sous-types connus de neuraminidases du virus de la grippe A[4], la plupart intervenant naturellement dans le système digestif de diverses espèces de canards et poulets, mais seuls les sous-types N1 et N2 (proches des enzymes glycoprotéiques humaines comme les amylases salivaires ou intestinales) sont pathogènes chez l'homme et sont liés aux épidémies grippales.
-Chez les mammifères, quatre neuraminidases ont été identifiées[5] : NEU1, NEU2, NEU3 et NEU4.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe onze sous-types connus de neuraminidases du virus de la grippe A, la plupart intervenant naturellement dans le système digestif de diverses espèces de canards et poulets, mais seuls les sous-types N1 et N2 (proches des enzymes glycoprotéiques humaines comme les amylases salivaires ou intestinales) sont pathogènes chez l'homme et sont liés aux épidémies grippales.
+Chez les mammifères, quatre neuraminidases ont été identifiées : NEU1, NEU2, NEU3 et NEU4.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neuraminidases du virus de la grippe se présentent comme une projection en forme de champignon à la surface des particules virales. Elles sont composées d'une tête formée de quatre sous-unités coplanaires à peu près sphériques montées sur une région hydrophobe ancrée dans la membrane du virus. Elles sont constituées d'une chaîne polypeptidique unique orientée dans la direction opposée de celle de l'antigène hémagglutinine et comprenant six acides aminés polaires conservés suivis par des acides aminés variables. La structure secondaire comprend essentiellement de feuillets β.
 </t>
@@ -577,7 +593,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après réplication du virus dans la cellule, la neuraminidase du virus  scinde à la surface des cellules infectées les liaisons de résidus d’acide sialique lié à des pelotes de carbohydrates glucosiques (glycoprotéines, glycolipides) elles-mêmes ancrées à la surface cellulaire. Cela permet le relargage du virus qui se dissocie de la membrane cellulaire et peut ainsi infecter d'autres cellules qui servent alors d’incubateurs reproducteurs du patrimoine génétique viral, au détriment des fonctions cellulaires normales.
 L’action de la neuraminidase est inefficace sur les cellules à membranes lipidiques faiblement glucosées (comme les cellules de la peau et des muqueuses intestinales) qui ne sont ainsi pas facilement infectées, c'est pourquoi ces virus sont résistants au sein des systèmes digestifs des volailles, où leur similitude protéique avec les agents digestifs de ces espèces ne les expose pas aux actions des anticorps, et où le milieu digestif lui-même produit les éléments nécessaires à la survie du virus. Les volailles sont alors couramment porteuses naturelles de virus grippaux. Toutefois, l’action du virus est efficace sur les cellules sexuelles, ce qui explique que les volailles infectées cessent de pondre.
@@ -610,7 +628,9 @@
           <t>Inhibiteurs de la neuraminidase</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs (tels que le zanamivir et l’oseltamivir) sont utilisés pour combattre les virus grippaux. En bloquant spécifiquement l’action digestive de la neuraminidase virale, ils contribuent à ne pas exposer les membranes polyglucosées des muqueuses supérieures animales et humaines, et la contamination de ces cellules.
 Le virus ainsi isolé et neutralisé ne trouve plus de milieu reproducteur cellulaire adapté et est rapidement exposé aux anticorps qui vont finir par l’éliminer rapidement en captant les autres antigènes bénins présents sur les inhibiteurs, ou des antigènes plus résistants à la surface du virus.
